--- a/downloaded_files/EECS414_Tutorial-35854.xlsx
+++ b/downloaded_files/EECS414_Tutorial-35854.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ehab Ahmed ElBadawy Salem Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف باسم لمعي جندي جرجس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Bassem Lamey Gindy</x:t>
   </x:si>
   <x:si>
     <x:t>1210337</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4394832176</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.4394832176</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS414_Tutorial-35854.xlsx
+++ b/downloaded_files/EECS414_Tutorial-35854.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Rawan yasser hashem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ساره عبد المنعم ضياء درويش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sarah Abdelmoniem Diyaa Darwish</x:t>
   </x:si>
   <x:si>
     <x:t>1210011</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -977,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4158490741</x:v>
+        <x:v>45906.414416088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45912.1020528935</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.1020528935</x:v>
+        <x:v>45912.1020841782</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.1020841782</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45906.5217770023</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.5217770023</x:v>
+        <x:v>45906.6653213773</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6653213773</x:v>
+        <x:v>45906.6659138542</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6659138542</x:v>
+        <x:v>45906.6651760764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651760764</x:v>
+        <x:v>45912.1021241551</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.1021241551</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45906.6668079861</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6668079861</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45906.4394832176</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.4394832176</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS414_Tutorial-35854.xlsx
+++ b/downloaded_files/EECS414_Tutorial-35854.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد تامر احمد فهيم دخان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Tamer Ahmed Fahim Dokhan</x:t>
   </x:si>
   <x:si>
     <x:t>1210188</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -744,7 +735,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4168480324</x:v>
+        <x:v>45906.670134456</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -776,7 +767,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.670134456</x:v>
+        <x:v>45906.8459739236</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -808,7 +799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.8459739236</x:v>
+        <x:v>45906.4162131944</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4162131944</x:v>
+        <x:v>45906.6651428241</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6651428241</x:v>
+        <x:v>45906.6653370023</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6653370023</x:v>
+        <x:v>45906.6652131597</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6652131597</x:v>
+        <x:v>45906.414416088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45912.1020528935</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.1020528935</x:v>
+        <x:v>45912.1020841782</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.1020841782</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45906.5217770023</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5217770023</x:v>
+        <x:v>45906.6653213773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6653213773</x:v>
+        <x:v>45906.6659138542</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6659138542</x:v>
+        <x:v>45906.6651760764</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651760764</x:v>
+        <x:v>45912.1021241551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.1021241551</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45906.6668079861</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6668079861</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45906.4394832176</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.4394832176</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS414_Tutorial-35854.xlsx
+++ b/downloaded_files/EECS414_Tutorial-35854.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Hosam El Din Ahmed Yosef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اميره محمد عصام احمد عبدالغني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
   </x:si>
   <x:si>
     <x:t>1220232</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -654,7 +663,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.810625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.720625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -767,7 +776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.8459739236</x:v>
+        <x:v>45932.4545988773</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -799,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4162131944</x:v>
+        <x:v>45906.8459739236</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -831,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6651428241</x:v>
+        <x:v>45906.4162131944</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -863,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6653370023</x:v>
+        <x:v>45906.6651428241</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6652131597</x:v>
+        <x:v>45906.6653370023</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45906.6652131597</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45906.414416088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.1020528935</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.1020841782</x:v>
+        <x:v>45912.1020528935</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45912.1020841782</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5217770023</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6653213773</x:v>
+        <x:v>45906.5217770023</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6659138542</x:v>
+        <x:v>45906.6653213773</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6651760764</x:v>
+        <x:v>45906.6659138542</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.1021241551</x:v>
+        <x:v>45906.6651760764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45912.1021241551</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6668079861</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45906.6668079861</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4394832176</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.4394832176</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS414_Tutorial-35854.xlsx
+++ b/downloaded_files/EECS414_Tutorial-35854.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد تامر احمد فهيم دخان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tamer Ahmed Fahim Dokhan</x:t>
   </x:si>
   <x:si>
     <x:t>1210188</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -744,7 +753,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.670134456</x:v>
+        <x:v>45936.5947631944</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -776,7 +785,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45932.4545988773</x:v>
+        <x:v>45906.670134456</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -808,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.8459739236</x:v>
+        <x:v>45932.4545988773</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4162131944</x:v>
+        <x:v>45906.8459739236</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6651428241</x:v>
+        <x:v>45906.4162131944</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6653370023</x:v>
+        <x:v>45906.6651428241</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6652131597</x:v>
+        <x:v>45906.6653370023</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.414416088</x:v>
+        <x:v>45906.6652131597</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45906.414416088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.1020528935</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.1020841782</x:v>
+        <x:v>45912.1020528935</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45912.1020841782</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5217770023</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6653213773</x:v>
+        <x:v>45906.5217770023</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6659138542</x:v>
+        <x:v>45906.6653213773</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651760764</x:v>
+        <x:v>45906.6659138542</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.1021241551</x:v>
+        <x:v>45906.6651760764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6996595255</x:v>
+        <x:v>45912.1021241551</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6668079861</x:v>
+        <x:v>45906.6996595255</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4161756134</x:v>
+        <x:v>45906.6668079861</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.414768831</x:v>
+        <x:v>45906.4161756134</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4180948264</x:v>
+        <x:v>45927.414768831</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4394832176</x:v>
+        <x:v>45906.4180948264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.4394832176</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS414_Tutorial-35854.xlsx
+++ b/downloaded_files/EECS414_Tutorial-35854.xlsx
@@ -138,7 +138,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1220131</x:t>
@@ -671,7 +671,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.810625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.720625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="49.120625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS414_Tutorial-35854.xlsx
+++ b/downloaded_files/EECS414_Tutorial-35854.xlsx
@@ -156,7 +156,7 @@
     <x:t>عمر محمد رءوف شاذلى</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Mohamed Raouf</x:t>
+    <x:t>Omar Mohamed Raouf Shazly</x:t>
   </x:si>
   <x:si>
     <x:t>1220135</x:t>
